--- a/Documentation/gantt_w55261.xlsx
+++ b/Documentation/gantt_w55261.xlsx
@@ -18,15 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Opracowanie koncepcji projektu(aplikacji)</t>
-  </si>
-  <si>
     <t>Utworzenie szablonu UI</t>
   </si>
   <si>
-    <t>Implementacja pól i przycisków w C#</t>
-  </si>
-  <si>
     <t>Poszukiwanie rzetelnych informacji o problemach zdrowotnych i suplementach</t>
   </si>
   <si>
@@ -36,26 +30,32 @@
     <t>Ile dni</t>
   </si>
   <si>
-    <t>Uzyskanie możliwości komunikacji projektu z językiem Java</t>
-  </si>
-  <si>
     <t>Testowanie mechaniki aplikacji</t>
   </si>
   <si>
-    <t>Utworzenie bazy danych do komunikacji z projektem</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Projekt SuplementSelector</t>
+  </si>
+  <si>
+    <t>Opracowanie koncepcji projektu (aplikacji)</t>
+  </si>
+  <si>
+    <t>Implementacja pól i przycisków w WPF/C#</t>
+  </si>
+  <si>
+    <t>Uzyskanie możliwości komunikacji projektu z serwerem w języku Java</t>
+  </si>
+  <si>
+    <t>Utworzenie bazy danych i podłączenie jej do serwera Java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,8 +64,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,8 +119,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -169,7 +183,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Opracowanie koncepcji projektu(aplikacji)</c:v>
+                  <c:v>Opracowanie koncepcji projektu (aplikacji)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Poszukiwanie rzetelnych informacji o problemach zdrowotnych i suplementach</c:v>
@@ -178,13 +192,13 @@
                   <c:v>Utworzenie szablonu UI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Implementacja pól i przycisków w C#</c:v>
+                  <c:v>Implementacja pól i przycisków w WPF/C#</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Uzyskanie możliwości komunikacji projektu z językiem Java</c:v>
+                  <c:v>Uzyskanie możliwości komunikacji projektu z serwerem w języku Java</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Utworzenie bazy danych do komunikacji z projektem</c:v>
+                  <c:v>Utworzenie bazy danych i podłączenie jej do serwera Java</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Testowanie mechaniki aplikacji</c:v>
@@ -244,7 +258,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Opracowanie koncepcji projektu(aplikacji)</c:v>
+                  <c:v>Opracowanie koncepcji projektu (aplikacji)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Poszukiwanie rzetelnych informacji o problemach zdrowotnych i suplementach</c:v>
@@ -253,13 +267,13 @@
                   <c:v>Utworzenie szablonu UI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Implementacja pól i przycisków w C#</c:v>
+                  <c:v>Implementacja pól i przycisków w WPF/C#</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Uzyskanie możliwości komunikacji projektu z językiem Java</c:v>
+                  <c:v>Uzyskanie możliwości komunikacji projektu z serwerem w języku Java</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Utworzenie bazy danych do komunikacji z projektem</c:v>
+                  <c:v>Utworzenie bazy danych i podłączenie jej do serwera Java</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Testowanie mechaniki aplikacji</c:v>
@@ -308,11 +322,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="47898112"/>
-        <c:axId val="93833472"/>
+        <c:axId val="94753280"/>
+        <c:axId val="78615040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47898112"/>
+        <c:axId val="94753280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -321,7 +335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93833472"/>
+        <c:crossAx val="78615040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -329,7 +343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93833472"/>
+        <c:axId val="78615040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43006"/>
@@ -343,7 +357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47898112"/>
+        <c:crossAx val="94753280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -698,7 +712,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -717,15 +731,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>42991</v>
@@ -736,7 +750,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>42994</v>
@@ -747,7 +761,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4">
         <v>42997</v>
@@ -758,7 +772,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>42999</v>
@@ -769,7 +783,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>43001</v>
@@ -780,7 +794,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>43003</v>
@@ -791,7 +805,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4">
         <v>43005</v>
@@ -802,7 +816,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>43006</v>
